--- a/src/test/resources/case/Education.xlsx
+++ b/src/test/resources/case/Education.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微迅工业大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微迅农业大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微迅科技大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,18 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/expected/education_base3.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/expected/education_base2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/expected/education_base1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +159,10 @@
   </si>
   <si>
     <t>education3</t>
+  </si>
+  <si>
+    <t>/expected/Education.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,7 +528,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -556,10 +540,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -573,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,13 +598,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -632,15 +616,15 @@
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -649,18 +633,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -672,13 +656,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -692,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,31 +691,31 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
